--- a/biology/Zoologie/Corydioidea/Corydioidea.xlsx
+++ b/biology/Zoologie/Corydioidea/Corydioidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Corydioidea sont une super-famille d'insectes comprenant des blattes.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les insectes de cette Super-famille sont sexuellement dimorphes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les insectes de cette Super-famille sont sexuellement dimorphes.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Corydioidea Saussure, 1864[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Corydioidea Saussure, 1864.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette superfamille comprend les familles des Corydiidae et des Nocticolidae selon une récente étude phylogénétique[3]. Elle comprend aussi les familles éteintes des Liberiblattinidae[4],[5], des Manipulatoridae, des Olidae et potentiellement le genre éteint Bimodala[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette superfamille comprend les familles des Corydiidae et des Nocticolidae selon une récente étude phylogénétique. Elle comprend aussi les familles éteintes des Liberiblattinidae des Manipulatoridae, des Olidae et potentiellement le genre éteint Bimodala.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les membres de cette super-famille sont présents dans le monde entier mais plus particulièrement dans les habitats chauds et arides[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les membres de cette super-famille sont présents dans le monde entier mais plus particulièrement dans les habitats chauds et arides.
 </t>
         </is>
       </c>
